--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Fas</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H2">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I2">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J2">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.4314721731419</v>
+        <v>4.793066</v>
       </c>
       <c r="N2">
-        <v>4.4314721731419</v>
+        <v>9.586132000000001</v>
       </c>
       <c r="O2">
-        <v>0.15083931273745</v>
+        <v>0.153089735029049</v>
       </c>
       <c r="P2">
-        <v>0.15083931273745</v>
+        <v>0.1123398347349799</v>
       </c>
       <c r="Q2">
-        <v>1.667631867303325</v>
+        <v>3.612421207149001</v>
       </c>
       <c r="R2">
-        <v>1.667631867303325</v>
+        <v>14.449684828596</v>
       </c>
       <c r="S2">
-        <v>0.006010689532934389</v>
+        <v>0.01108529652461961</v>
       </c>
       <c r="T2">
-        <v>0.006010689532934389</v>
+        <v>0.005634211303994227</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H3">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I3">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J3">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.90536262301646</v>
+        <v>8.522109</v>
       </c>
       <c r="N3">
-        <v>7.90536262301646</v>
+        <v>25.566327</v>
       </c>
       <c r="O3">
-        <v>0.2690842723154666</v>
+        <v>0.2721947514802995</v>
       </c>
       <c r="P3">
-        <v>0.2690842723154666</v>
+        <v>0.2996116629690112</v>
       </c>
       <c r="Q3">
-        <v>2.974910846249088</v>
+        <v>6.422913283738501</v>
       </c>
       <c r="R3">
-        <v>2.974910846249088</v>
+        <v>38.53747970243101</v>
       </c>
       <c r="S3">
-        <v>0.01072254964393167</v>
+        <v>0.0197097443014825</v>
       </c>
       <c r="T3">
-        <v>0.01072254964393167</v>
+        <v>0.01502650793719645</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H4">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I4">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J4">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.19521547544366</v>
+        <v>3.389131666666667</v>
       </c>
       <c r="N4">
-        <v>3.19521547544366</v>
+        <v>10.167395</v>
       </c>
       <c r="O4">
-        <v>0.1087593665340056</v>
+        <v>0.108248304702785</v>
       </c>
       <c r="P4">
-        <v>0.1087593665340056</v>
+        <v>0.1191516530322408</v>
       </c>
       <c r="Q4">
-        <v>1.202409253982237</v>
+        <v>2.554308892572501</v>
       </c>
       <c r="R4">
-        <v>1.202409253982237</v>
+        <v>15.325853355435</v>
       </c>
       <c r="S4">
-        <v>0.004333875394754555</v>
+        <v>0.007838308399253896</v>
       </c>
       <c r="T4">
-        <v>0.004333875394754555</v>
+        <v>0.005975846341483133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H5">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I5">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J5">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.545488750046</v>
+        <v>3.565121</v>
       </c>
       <c r="N5">
-        <v>3.545488750046</v>
+        <v>10.695363</v>
       </c>
       <c r="O5">
-        <v>0.1206820364610635</v>
+        <v>0.1138693748920833</v>
       </c>
       <c r="P5">
-        <v>0.1206820364610635</v>
+        <v>0.125338907481205</v>
       </c>
       <c r="Q5">
-        <v>1.334222532317099</v>
+        <v>2.6869479173565</v>
       </c>
       <c r="R5">
-        <v>1.334222532317099</v>
+        <v>16.121687504139</v>
       </c>
       <c r="S5">
-        <v>0.00480897347120851</v>
+        <v>0.008245332618234005</v>
       </c>
       <c r="T5">
-        <v>0.00480897347120851</v>
+        <v>0.006286157452757964</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H6">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I6">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J6">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.59915003604528</v>
+        <v>7.237454333333335</v>
       </c>
       <c r="N6">
-        <v>6.59915003604528</v>
+        <v>21.712363</v>
       </c>
       <c r="O6">
-        <v>0.2246231539309531</v>
+        <v>0.2311630939725934</v>
       </c>
       <c r="P6">
-        <v>0.2246231539309531</v>
+        <v>0.2544470774161979</v>
       </c>
       <c r="Q6">
-        <v>2.483362744309533</v>
+        <v>5.454699250856502</v>
       </c>
       <c r="R6">
-        <v>2.483362744309533</v>
+        <v>32.72819550513901</v>
       </c>
       <c r="S6">
-        <v>0.008950849852634477</v>
+        <v>0.016738623538335</v>
       </c>
       <c r="T6">
-        <v>0.008950849852634477</v>
+        <v>0.01276135578469252</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H7">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I7">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J7">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.702072305767</v>
+        <v>3.801984</v>
       </c>
       <c r="N7">
-        <v>3.702072305767</v>
+        <v>7.603968</v>
       </c>
       <c r="O7">
-        <v>0.1260118580210613</v>
+        <v>0.1214347399231898</v>
       </c>
       <c r="P7">
-        <v>0.1260118580210613</v>
+        <v>0.08911086436636542</v>
       </c>
       <c r="Q7">
-        <v>1.393147358472753</v>
+        <v>2.865465994176</v>
       </c>
       <c r="R7">
-        <v>1.393147358472753</v>
+        <v>11.461863976704</v>
       </c>
       <c r="S7">
-        <v>0.005021357776610696</v>
+        <v>0.008793144100636079</v>
       </c>
       <c r="T7">
-        <v>0.005021357776610696</v>
+        <v>0.004469202224714867</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.35356565893555</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H8">
-        <v>3.35356565893555</v>
+        <v>0.36136</v>
       </c>
       <c r="I8">
-        <v>0.3551112294008332</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J8">
-        <v>0.3551112294008332</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.4314721731419</v>
+        <v>4.793066</v>
       </c>
       <c r="N8">
-        <v>4.4314721731419</v>
+        <v>9.586132000000001</v>
       </c>
       <c r="O8">
-        <v>0.15083931273745</v>
+        <v>0.153089735029049</v>
       </c>
       <c r="P8">
-        <v>0.15083931273745</v>
+        <v>0.1123398347349799</v>
       </c>
       <c r="Q8">
-        <v>14.86123289837717</v>
+        <v>0.5773407765866668</v>
       </c>
       <c r="R8">
-        <v>14.86123289837717</v>
+        <v>3.46404465952</v>
       </c>
       <c r="S8">
-        <v>0.05356473378817262</v>
+        <v>0.001771663196847517</v>
       </c>
       <c r="T8">
-        <v>0.05356473378817262</v>
+        <v>0.001350697943223222</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.35356565893555</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H9">
-        <v>3.35356565893555</v>
+        <v>0.36136</v>
       </c>
       <c r="I9">
-        <v>0.3551112294008332</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J9">
-        <v>0.3551112294008332</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.90536262301646</v>
+        <v>8.522109</v>
       </c>
       <c r="N9">
-        <v>7.90536262301646</v>
+        <v>25.566327</v>
       </c>
       <c r="O9">
-        <v>0.2690842723154666</v>
+        <v>0.2721947514802995</v>
       </c>
       <c r="P9">
-        <v>0.2690842723154666</v>
+        <v>0.2996116629690112</v>
       </c>
       <c r="Q9">
-        <v>26.51115261398066</v>
+        <v>1.02651643608</v>
       </c>
       <c r="R9">
-        <v>26.51115261398066</v>
+        <v>9.23864792472</v>
       </c>
       <c r="S9">
-        <v>0.09555484675437392</v>
+        <v>0.003150031081321015</v>
       </c>
       <c r="T9">
-        <v>0.09555484675437392</v>
+        <v>0.003602327330217478</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.35356565893555</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H10">
-        <v>3.35356565893555</v>
+        <v>0.36136</v>
       </c>
       <c r="I10">
-        <v>0.3551112294008332</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J10">
-        <v>0.3551112294008332</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.19521547544366</v>
+        <v>3.389131666666667</v>
       </c>
       <c r="N10">
-        <v>3.19521547544366</v>
+        <v>10.167395</v>
       </c>
       <c r="O10">
-        <v>0.1087593665340056</v>
+        <v>0.108248304702785</v>
       </c>
       <c r="P10">
-        <v>0.1087593665340056</v>
+        <v>0.1191516530322408</v>
       </c>
       <c r="Q10">
-        <v>10.71536489134728</v>
+        <v>0.4082322063555556</v>
       </c>
       <c r="R10">
-        <v>10.71536489134728</v>
+        <v>3.6740898572</v>
       </c>
       <c r="S10">
-        <v>0.03862167235874655</v>
+        <v>0.001252726301516361</v>
       </c>
       <c r="T10">
-        <v>0.03862167235874655</v>
+        <v>0.001432598624183151</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.35356565893555</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H11">
-        <v>3.35356565893555</v>
+        <v>0.36136</v>
       </c>
       <c r="I11">
-        <v>0.3551112294008332</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J11">
-        <v>0.3551112294008332</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.545488750046</v>
+        <v>3.565121</v>
       </c>
       <c r="N11">
-        <v>3.545488750046</v>
+        <v>10.695363</v>
       </c>
       <c r="O11">
-        <v>0.1206820364610635</v>
+        <v>0.1138693748920833</v>
       </c>
       <c r="P11">
-        <v>0.1206820364610635</v>
+        <v>0.125338907481205</v>
       </c>
       <c r="Q11">
-        <v>11.89002931629659</v>
+        <v>0.4294307081866667</v>
       </c>
       <c r="R11">
-        <v>11.89002931629659</v>
+        <v>3.86487637368</v>
       </c>
       <c r="S11">
-        <v>0.04285554633428444</v>
+        <v>0.001317777319988545</v>
       </c>
       <c r="T11">
-        <v>0.04285554633428444</v>
+        <v>0.001506989973236938</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.35356565893555</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H12">
-        <v>3.35356565893555</v>
+        <v>0.36136</v>
       </c>
       <c r="I12">
-        <v>0.3551112294008332</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J12">
-        <v>0.3551112294008332</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.59915003604528</v>
+        <v>7.237454333333335</v>
       </c>
       <c r="N12">
-        <v>6.59915003604528</v>
+        <v>21.712363</v>
       </c>
       <c r="O12">
-        <v>0.2246231539309531</v>
+        <v>0.2311630939725934</v>
       </c>
       <c r="P12">
-        <v>0.2246231539309531</v>
+        <v>0.2544470774161979</v>
       </c>
       <c r="Q12">
-        <v>22.13068293904475</v>
+        <v>0.871775499297778</v>
       </c>
       <c r="R12">
-        <v>22.13068293904475</v>
+        <v>7.845979493680002</v>
       </c>
       <c r="S12">
-        <v>0.07976620434431335</v>
+        <v>0.002675183584209199</v>
       </c>
       <c r="T12">
-        <v>0.07976620434431335</v>
+        <v>0.003059299000537025</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.35356565893555</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H13">
-        <v>3.35356565893555</v>
+        <v>0.36136</v>
       </c>
       <c r="I13">
-        <v>0.3551112294008332</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J13">
-        <v>0.3551112294008332</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.702072305767</v>
+        <v>3.801984</v>
       </c>
       <c r="N13">
-        <v>3.702072305767</v>
+        <v>7.603968</v>
       </c>
       <c r="O13">
-        <v>0.1260118580210613</v>
+        <v>0.1214347399231898</v>
       </c>
       <c r="P13">
-        <v>0.1260118580210613</v>
+        <v>0.08911086436636542</v>
       </c>
       <c r="Q13">
-        <v>12.41514255151656</v>
+        <v>0.4579616460800001</v>
       </c>
       <c r="R13">
-        <v>12.41514255151656</v>
+        <v>2.74776987648</v>
       </c>
       <c r="S13">
-        <v>0.04474822582094232</v>
+        <v>0.001405329099954624</v>
       </c>
       <c r="T13">
-        <v>0.04474822582094232</v>
+        <v>0.001071408565825632</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.36549438862542</v>
+        <v>3.418481</v>
       </c>
       <c r="H14">
-        <v>4.36549438862542</v>
+        <v>10.255443</v>
       </c>
       <c r="I14">
-        <v>0.4622650148973883</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J14">
-        <v>0.4622650148973883</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.4314721731419</v>
+        <v>4.793066</v>
       </c>
       <c r="N14">
-        <v>4.4314721731419</v>
+        <v>9.586132000000001</v>
       </c>
       <c r="O14">
-        <v>0.15083931273745</v>
+        <v>0.153089735029049</v>
       </c>
       <c r="P14">
-        <v>0.15083931273745</v>
+        <v>0.1123398347349799</v>
       </c>
       <c r="Q14">
-        <v>19.34556690520066</v>
+        <v>16.385005052746</v>
       </c>
       <c r="R14">
-        <v>19.34556690520066</v>
+        <v>98.31003031647603</v>
       </c>
       <c r="S14">
-        <v>0.06972773714968912</v>
+        <v>0.05028002803428019</v>
       </c>
       <c r="T14">
-        <v>0.06972773714968912</v>
+        <v>0.03833298031587059</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.36549438862542</v>
+        <v>3.418481</v>
       </c>
       <c r="H15">
-        <v>4.36549438862542</v>
+        <v>10.255443</v>
       </c>
       <c r="I15">
-        <v>0.4622650148973883</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J15">
-        <v>0.4622650148973883</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.90536262301646</v>
+        <v>8.522109</v>
       </c>
       <c r="N15">
-        <v>7.90536262301646</v>
+        <v>25.566327</v>
       </c>
       <c r="O15">
-        <v>0.2690842723154666</v>
+        <v>0.2721947514802995</v>
       </c>
       <c r="P15">
-        <v>0.2690842723154666</v>
+        <v>0.2996116629690112</v>
       </c>
       <c r="Q15">
-        <v>34.51081617082749</v>
+        <v>29.132667696429</v>
       </c>
       <c r="R15">
-        <v>34.51081617082749</v>
+        <v>262.194009267861</v>
       </c>
       <c r="S15">
-        <v>0.124388245150562</v>
+        <v>0.08939828482044508</v>
       </c>
       <c r="T15">
-        <v>0.124388245150562</v>
+        <v>0.1022345101903574</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.36549438862542</v>
+        <v>3.418481</v>
       </c>
       <c r="H16">
-        <v>4.36549438862542</v>
+        <v>10.255443</v>
       </c>
       <c r="I16">
-        <v>0.4622650148973883</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J16">
-        <v>0.4622650148973883</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.19521547544366</v>
+        <v>3.389131666666667</v>
       </c>
       <c r="N16">
-        <v>3.19521547544366</v>
+        <v>10.167395</v>
       </c>
       <c r="O16">
-        <v>0.1087593665340056</v>
+        <v>0.108248304702785</v>
       </c>
       <c r="P16">
-        <v>0.1087593665340056</v>
+        <v>0.1191516530322408</v>
       </c>
       <c r="Q16">
-        <v>13.9486952284984</v>
+        <v>11.58568220899834</v>
       </c>
       <c r="R16">
-        <v>13.9486952284984</v>
+        <v>104.271139880985</v>
       </c>
       <c r="S16">
-        <v>0.05027565019107259</v>
+        <v>0.03555253259852185</v>
       </c>
       <c r="T16">
-        <v>0.05027565019107259</v>
+        <v>0.04065733211254352</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.36549438862542</v>
+        <v>3.418481</v>
       </c>
       <c r="H17">
-        <v>4.36549438862542</v>
+        <v>10.255443</v>
       </c>
       <c r="I17">
-        <v>0.4622650148973883</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J17">
-        <v>0.4622650148973883</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.545488750046</v>
+        <v>3.565121</v>
       </c>
       <c r="N17">
-        <v>3.545488750046</v>
+        <v>10.695363</v>
       </c>
       <c r="O17">
-        <v>0.1206820364610635</v>
+        <v>0.1138693748920833</v>
       </c>
       <c r="P17">
-        <v>0.1206820364610635</v>
+        <v>0.125338907481205</v>
       </c>
       <c r="Q17">
-        <v>15.47781124326037</v>
+        <v>12.187298401201</v>
       </c>
       <c r="R17">
-        <v>15.47781124326037</v>
+        <v>109.685685610809</v>
       </c>
       <c r="S17">
-        <v>0.05578708338252068</v>
+        <v>0.03739868881955746</v>
       </c>
       <c r="T17">
-        <v>0.05578708338252068</v>
+        <v>0.0427685681096495</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.36549438862542</v>
+        <v>3.418481</v>
       </c>
       <c r="H18">
-        <v>4.36549438862542</v>
+        <v>10.255443</v>
       </c>
       <c r="I18">
-        <v>0.4622650148973883</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J18">
-        <v>0.4622650148973883</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.59915003604528</v>
+        <v>7.237454333333335</v>
       </c>
       <c r="N18">
-        <v>6.59915003604528</v>
+        <v>21.712363</v>
       </c>
       <c r="O18">
-        <v>0.2246231539309531</v>
+        <v>0.2311630939725934</v>
       </c>
       <c r="P18">
-        <v>0.2246231539309531</v>
+        <v>0.2544470774161979</v>
       </c>
       <c r="Q18">
-        <v>28.80855245205291</v>
+        <v>24.74110012686767</v>
       </c>
       <c r="R18">
-        <v>28.80855245205291</v>
+        <v>222.6699011418091</v>
       </c>
       <c r="S18">
-        <v>0.1038354255981904</v>
+        <v>0.0759220521429963</v>
       </c>
       <c r="T18">
-        <v>0.1038354255981904</v>
+        <v>0.08682329676766781</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.36549438862542</v>
+        <v>3.418481</v>
       </c>
       <c r="H19">
-        <v>4.36549438862542</v>
+        <v>10.255443</v>
       </c>
       <c r="I19">
-        <v>0.4622650148973883</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J19">
-        <v>0.4622650148973883</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.702072305767</v>
+        <v>3.801984</v>
       </c>
       <c r="N19">
-        <v>3.702072305767</v>
+        <v>7.603968</v>
       </c>
       <c r="O19">
-        <v>0.1260118580210613</v>
+        <v>0.1214347399231898</v>
       </c>
       <c r="P19">
-        <v>0.1260118580210613</v>
+        <v>0.08911086436636542</v>
       </c>
       <c r="Q19">
-        <v>16.16137587711141</v>
+        <v>12.997010066304</v>
       </c>
       <c r="R19">
-        <v>16.16137587711141</v>
+        <v>77.98206039782401</v>
       </c>
       <c r="S19">
-        <v>0.05825087342535347</v>
+        <v>0.03988341952851988</v>
       </c>
       <c r="T19">
-        <v>0.05825087342535347</v>
+        <v>0.03040671207808424</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.944953715937822</v>
+        <v>4.597592</v>
       </c>
       <c r="H20">
-        <v>0.944953715937822</v>
+        <v>13.792776</v>
       </c>
       <c r="I20">
-        <v>0.1000617581169043</v>
+        <v>0.44171962805982</v>
       </c>
       <c r="J20">
-        <v>0.1000617581169043</v>
+        <v>0.4589190263438705</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.4314721731419</v>
+        <v>4.793066</v>
       </c>
       <c r="N20">
-        <v>4.4314721731419</v>
+        <v>9.586132000000001</v>
       </c>
       <c r="O20">
-        <v>0.15083931273745</v>
+        <v>0.153089735029049</v>
       </c>
       <c r="P20">
-        <v>0.15083931273745</v>
+        <v>0.1123398347349799</v>
       </c>
       <c r="Q20">
-        <v>4.187536097085494</v>
+        <v>22.036561897072</v>
       </c>
       <c r="R20">
-        <v>4.187536097085494</v>
+        <v>132.219371382432</v>
       </c>
       <c r="S20">
-        <v>0.0150932468256548</v>
+        <v>0.06762274081680791</v>
       </c>
       <c r="T20">
-        <v>0.0150932468256548</v>
+        <v>0.05155488757620828</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.944953715937822</v>
+        <v>4.597592</v>
       </c>
       <c r="H21">
-        <v>0.944953715937822</v>
+        <v>13.792776</v>
       </c>
       <c r="I21">
-        <v>0.1000617581169043</v>
+        <v>0.44171962805982</v>
       </c>
       <c r="J21">
-        <v>0.1000617581169043</v>
+        <v>0.4589190263438705</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.90536262301646</v>
+        <v>8.522109</v>
       </c>
       <c r="N21">
-        <v>7.90536262301646</v>
+        <v>25.566327</v>
       </c>
       <c r="O21">
-        <v>0.2690842723154666</v>
+        <v>0.2721947514802995</v>
       </c>
       <c r="P21">
-        <v>0.2690842723154666</v>
+        <v>0.2996116629690112</v>
       </c>
       <c r="Q21">
-        <v>7.470201786455371</v>
+        <v>39.181180161528</v>
       </c>
       <c r="R21">
-        <v>7.470201786455371</v>
+        <v>352.630621453752</v>
       </c>
       <c r="S21">
-        <v>0.02692504536949342</v>
+        <v>0.120233764383713</v>
       </c>
       <c r="T21">
-        <v>0.02692504536949342</v>
+        <v>0.1374974926510065</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.944953715937822</v>
+        <v>4.597592</v>
       </c>
       <c r="H22">
-        <v>0.944953715937822</v>
+        <v>13.792776</v>
       </c>
       <c r="I22">
-        <v>0.1000617581169043</v>
+        <v>0.44171962805982</v>
       </c>
       <c r="J22">
-        <v>0.1000617581169043</v>
+        <v>0.4589190263438705</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.19521547544366</v>
+        <v>3.389131666666667</v>
       </c>
       <c r="N22">
-        <v>3.19521547544366</v>
+        <v>10.167395</v>
       </c>
       <c r="O22">
-        <v>0.1087593665340056</v>
+        <v>0.108248304702785</v>
       </c>
       <c r="P22">
-        <v>0.1087593665340056</v>
+        <v>0.1191516530322408</v>
       </c>
       <c r="Q22">
-        <v>3.019330736742521</v>
+        <v>15.58184463761333</v>
       </c>
       <c r="R22">
-        <v>3.019330736742521</v>
+        <v>140.23660173852</v>
       </c>
       <c r="S22">
-        <v>0.0108826534270734</v>
+        <v>0.04781540089142027</v>
       </c>
       <c r="T22">
-        <v>0.0108826534270734</v>
+        <v>0.05468096059681864</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.944953715937822</v>
+        <v>4.597592</v>
       </c>
       <c r="H23">
-        <v>0.944953715937822</v>
+        <v>13.792776</v>
       </c>
       <c r="I23">
-        <v>0.1000617581169043</v>
+        <v>0.44171962805982</v>
       </c>
       <c r="J23">
-        <v>0.1000617581169043</v>
+        <v>0.4589190263438705</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.545488750046</v>
+        <v>3.565121</v>
       </c>
       <c r="N23">
-        <v>3.545488750046</v>
+        <v>10.695363</v>
       </c>
       <c r="O23">
-        <v>0.1206820364610635</v>
+        <v>0.1138693748920833</v>
       </c>
       <c r="P23">
-        <v>0.1206820364610635</v>
+        <v>0.125338907481205</v>
       </c>
       <c r="Q23">
-        <v>3.350322769171711</v>
+        <v>16.390971788632</v>
       </c>
       <c r="R23">
-        <v>3.350322769171711</v>
+        <v>147.518746097688</v>
       </c>
       <c r="S23">
-        <v>0.01207565674142236</v>
+        <v>0.05029833792473522</v>
       </c>
       <c r="T23">
-        <v>0.01207565674142236</v>
+        <v>0.05752040938427905</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.944953715937822</v>
+        <v>4.597592</v>
       </c>
       <c r="H24">
-        <v>0.944953715937822</v>
+        <v>13.792776</v>
       </c>
       <c r="I24">
-        <v>0.1000617581169043</v>
+        <v>0.44171962805982</v>
       </c>
       <c r="J24">
-        <v>0.1000617581169043</v>
+        <v>0.4589190263438705</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.59915003604528</v>
+        <v>7.237454333333335</v>
       </c>
       <c r="N24">
-        <v>6.59915003604528</v>
+        <v>21.712363</v>
       </c>
       <c r="O24">
-        <v>0.2246231539309531</v>
+        <v>0.2311630939725934</v>
       </c>
       <c r="P24">
-        <v>0.2246231539309531</v>
+        <v>0.2544470774161979</v>
       </c>
       <c r="Q24">
-        <v>6.235891348592199</v>
+        <v>33.27486214329867</v>
       </c>
       <c r="R24">
-        <v>6.235891348592199</v>
+        <v>299.473759289688</v>
       </c>
       <c r="S24">
-        <v>0.02247618769609518</v>
+        <v>0.1021092758907312</v>
       </c>
       <c r="T24">
-        <v>0.02247618769609518</v>
+        <v>0.116770605023885</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.944953715937822</v>
+        <v>4.597592</v>
       </c>
       <c r="H25">
-        <v>0.944953715937822</v>
+        <v>13.792776</v>
       </c>
       <c r="I25">
-        <v>0.1000617581169043</v>
+        <v>0.44171962805982</v>
       </c>
       <c r="J25">
-        <v>0.1000617581169043</v>
+        <v>0.4589190263438705</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.702072305767</v>
+        <v>3.801984</v>
       </c>
       <c r="N25">
-        <v>3.702072305767</v>
+        <v>7.603968</v>
       </c>
       <c r="O25">
-        <v>0.1260118580210613</v>
+        <v>0.1214347399231898</v>
       </c>
       <c r="P25">
-        <v>0.1260118580210613</v>
+        <v>0.08911086436636542</v>
       </c>
       <c r="Q25">
-        <v>3.498286982005027</v>
+        <v>17.479971222528</v>
       </c>
       <c r="R25">
-        <v>3.498286982005027</v>
+        <v>104.879827335168</v>
       </c>
       <c r="S25">
-        <v>0.01260896805716512</v>
+        <v>0.05364010815241237</v>
       </c>
       <c r="T25">
-        <v>0.01260896805716512</v>
+        <v>0.04089467111167312</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4033755962673</v>
+        <v>1.101608333333333</v>
       </c>
       <c r="H26">
-        <v>0.4033755962673</v>
+        <v>3.304825</v>
       </c>
       <c r="I26">
-        <v>0.04271370191279979</v>
+        <v>0.1058384526655689</v>
       </c>
       <c r="J26">
-        <v>0.04271370191279979</v>
+        <v>0.1099595231037524</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.4314721731419</v>
+        <v>4.793066</v>
       </c>
       <c r="N26">
-        <v>4.4314721731419</v>
+        <v>9.586132000000001</v>
       </c>
       <c r="O26">
-        <v>0.15083931273745</v>
+        <v>0.153089735029049</v>
       </c>
       <c r="P26">
-        <v>0.15083931273745</v>
+        <v>0.1123398347349799</v>
       </c>
       <c r="Q26">
-        <v>1.787547730183062</v>
+        <v>5.280081447816667</v>
       </c>
       <c r="R26">
-        <v>1.787547730183062</v>
+        <v>31.68048868690001</v>
       </c>
       <c r="S26">
-        <v>0.006442905440999022</v>
+        <v>0.01620278067445648</v>
       </c>
       <c r="T26">
-        <v>0.006442905440999022</v>
+        <v>0.01235283465301274</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.4033755962673</v>
+        <v>1.101608333333333</v>
       </c>
       <c r="H27">
-        <v>0.4033755962673</v>
+        <v>3.304825</v>
       </c>
       <c r="I27">
-        <v>0.04271370191279979</v>
+        <v>0.1058384526655689</v>
       </c>
       <c r="J27">
-        <v>0.04271370191279979</v>
+        <v>0.1099595231037524</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>7.90536262301646</v>
+        <v>8.522109</v>
       </c>
       <c r="N27">
-        <v>7.90536262301646</v>
+        <v>25.566327</v>
       </c>
       <c r="O27">
-        <v>0.2690842723154666</v>
+        <v>0.2721947514802995</v>
       </c>
       <c r="P27">
-        <v>0.2690842723154666</v>
+        <v>0.2996116629690112</v>
       </c>
       <c r="Q27">
-        <v>3.188830361768491</v>
+        <v>9.388026291975001</v>
       </c>
       <c r="R27">
-        <v>3.188830361768491</v>
+        <v>84.492236627775</v>
       </c>
       <c r="S27">
-        <v>0.01149358539710548</v>
+        <v>0.02880867132036397</v>
       </c>
       <c r="T27">
-        <v>0.01149358539710548</v>
+        <v>0.03294515557639467</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.4033755962673</v>
+        <v>1.101608333333333</v>
       </c>
       <c r="H28">
-        <v>0.4033755962673</v>
+        <v>3.304825</v>
       </c>
       <c r="I28">
-        <v>0.04271370191279979</v>
+        <v>0.1058384526655689</v>
       </c>
       <c r="J28">
-        <v>0.04271370191279979</v>
+        <v>0.1099595231037524</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.19521547544366</v>
+        <v>3.389131666666667</v>
       </c>
       <c r="N28">
-        <v>3.19521547544366</v>
+        <v>10.167395</v>
       </c>
       <c r="O28">
-        <v>0.1087593665340056</v>
+        <v>0.108248304702785</v>
       </c>
       <c r="P28">
-        <v>0.1087593665340056</v>
+        <v>0.1191516530322408</v>
       </c>
       <c r="Q28">
-        <v>1.288871947609591</v>
+        <v>3.733495686763889</v>
       </c>
       <c r="R28">
-        <v>1.288871947609591</v>
+        <v>33.60146118087501</v>
       </c>
       <c r="S28">
-        <v>0.004645515162358446</v>
+        <v>0.01145683307341379</v>
       </c>
       <c r="T28">
-        <v>0.004645515162358446</v>
+        <v>0.01310185894444897</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.4033755962673</v>
+        <v>1.101608333333333</v>
       </c>
       <c r="H29">
-        <v>0.4033755962673</v>
+        <v>3.304825</v>
       </c>
       <c r="I29">
-        <v>0.04271370191279979</v>
+        <v>0.1058384526655689</v>
       </c>
       <c r="J29">
-        <v>0.04271370191279979</v>
+        <v>0.1099595231037524</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.545488750046</v>
+        <v>3.565121</v>
       </c>
       <c r="N29">
-        <v>3.545488750046</v>
+        <v>10.695363</v>
       </c>
       <c r="O29">
-        <v>0.1206820364610635</v>
+        <v>0.1138693748920833</v>
       </c>
       <c r="P29">
-        <v>0.1206820364610635</v>
+        <v>0.125338907481205</v>
       </c>
       <c r="Q29">
-        <v>1.430163638608809</v>
+        <v>3.927367002941667</v>
       </c>
       <c r="R29">
-        <v>1.430163638608809</v>
+        <v>35.34630302647501</v>
       </c>
       <c r="S29">
-        <v>0.005154776531627502</v>
+        <v>0.01205175844457367</v>
       </c>
       <c r="T29">
-        <v>0.005154776531627502</v>
+        <v>0.01378220649297864</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.4033755962673</v>
+        <v>1.101608333333333</v>
       </c>
       <c r="H30">
-        <v>0.4033755962673</v>
+        <v>3.304825</v>
       </c>
       <c r="I30">
-        <v>0.04271370191279979</v>
+        <v>0.1058384526655689</v>
       </c>
       <c r="J30">
-        <v>0.04271370191279979</v>
+        <v>0.1099595231037524</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.59915003604528</v>
+        <v>7.237454333333335</v>
       </c>
       <c r="N30">
-        <v>6.59915003604528</v>
+        <v>21.712363</v>
       </c>
       <c r="O30">
-        <v>0.2246231539309531</v>
+        <v>0.2311630939725934</v>
       </c>
       <c r="P30">
-        <v>0.2246231539309531</v>
+        <v>0.2544470774161979</v>
       </c>
       <c r="Q30">
-        <v>2.661936080647139</v>
+        <v>7.972840005719446</v>
       </c>
       <c r="R30">
-        <v>2.661936080647139</v>
+        <v>71.75556005147502</v>
       </c>
       <c r="S30">
-        <v>0.009594486439719671</v>
+        <v>0.02446594417944478</v>
       </c>
       <c r="T30">
-        <v>0.009594486439719671</v>
+        <v>0.02797887928782869</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.101608333333333</v>
+      </c>
+      <c r="H31">
+        <v>3.304825</v>
+      </c>
+      <c r="I31">
+        <v>0.1058384526655689</v>
+      </c>
+      <c r="J31">
+        <v>0.1099595231037524</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.801984</v>
+      </c>
+      <c r="N31">
+        <v>7.603968</v>
+      </c>
+      <c r="O31">
+        <v>0.1214347399231898</v>
+      </c>
+      <c r="P31">
+        <v>0.08911086436636542</v>
+      </c>
+      <c r="Q31">
+        <v>4.188297257599999</v>
+      </c>
+      <c r="R31">
+        <v>25.1297835456</v>
+      </c>
+      <c r="S31">
+        <v>0.01285246497331619</v>
+      </c>
+      <c r="T31">
+        <v>0.009798588149088707</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.416583</v>
+      </c>
+      <c r="H32">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J32">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>4.793066</v>
+      </c>
+      <c r="N32">
+        <v>9.586132000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.153089735029049</v>
+      </c>
+      <c r="P32">
+        <v>0.1123398347349799</v>
+      </c>
+      <c r="Q32">
+        <v>1.996709813478</v>
+      </c>
+      <c r="R32">
+        <v>7.986839253912001</v>
+      </c>
+      <c r="S32">
+        <v>0.006127225782037268</v>
+      </c>
+      <c r="T32">
+        <v>0.003114222942670797</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.416583</v>
+      </c>
+      <c r="H33">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J33">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>8.522109</v>
+      </c>
+      <c r="N33">
+        <v>25.566327</v>
+      </c>
+      <c r="O33">
+        <v>0.2721947514802995</v>
+      </c>
+      <c r="P33">
+        <v>0.2996116629690112</v>
+      </c>
+      <c r="Q33">
+        <v>3.550165733547</v>
+      </c>
+      <c r="R33">
+        <v>21.300994401282</v>
+      </c>
+      <c r="S33">
+        <v>0.01089425557297392</v>
+      </c>
+      <c r="T33">
+        <v>0.008305669283838763</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.416583</v>
+      </c>
+      <c r="H34">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J34">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>3.389131666666667</v>
+      </c>
+      <c r="N34">
+        <v>10.167395</v>
+      </c>
+      <c r="O34">
+        <v>0.108248304702785</v>
+      </c>
+      <c r="P34">
+        <v>0.1191516530322408</v>
+      </c>
+      <c r="Q34">
+        <v>1.411854637095</v>
+      </c>
+      <c r="R34">
+        <v>8.471127822570001</v>
+      </c>
+      <c r="S34">
+        <v>0.004332503438658875</v>
+      </c>
+      <c r="T34">
+        <v>0.003303056412763391</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.416583</v>
+      </c>
+      <c r="H35">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J35">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>3.565121</v>
+      </c>
+      <c r="N35">
+        <v>10.695363</v>
+      </c>
+      <c r="O35">
+        <v>0.1138693748920833</v>
+      </c>
+      <c r="P35">
+        <v>0.125338907481205</v>
+      </c>
+      <c r="Q35">
+        <v>1.485168801543</v>
+      </c>
+      <c r="R35">
+        <v>8.911012809258001</v>
+      </c>
+      <c r="S35">
+        <v>0.004557479764994365</v>
+      </c>
+      <c r="T35">
+        <v>0.003474576068302874</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.4033755962673</v>
-      </c>
-      <c r="H31">
-        <v>0.4033755962673</v>
-      </c>
-      <c r="I31">
-        <v>0.04271370191279979</v>
-      </c>
-      <c r="J31">
-        <v>0.04271370191279979</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>3.702072305767</v>
-      </c>
-      <c r="N31">
-        <v>3.702072305767</v>
-      </c>
-      <c r="O31">
-        <v>0.1260118580210613</v>
-      </c>
-      <c r="P31">
-        <v>0.1260118580210613</v>
-      </c>
-      <c r="Q31">
-        <v>1.493325623763422</v>
-      </c>
-      <c r="R31">
-        <v>1.493325623763422</v>
-      </c>
-      <c r="S31">
-        <v>0.00538243294098966</v>
-      </c>
-      <c r="T31">
-        <v>0.00538243294098966</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.416583</v>
+      </c>
+      <c r="H36">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J36">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>7.237454333333335</v>
+      </c>
+      <c r="N36">
+        <v>21.712363</v>
+      </c>
+      <c r="O36">
+        <v>0.2311630939725934</v>
+      </c>
+      <c r="P36">
+        <v>0.2544470774161979</v>
+      </c>
+      <c r="Q36">
+        <v>3.015000438543001</v>
+      </c>
+      <c r="R36">
+        <v>18.09000263125801</v>
+      </c>
+      <c r="S36">
+        <v>0.009252014636876971</v>
+      </c>
+      <c r="T36">
+        <v>0.00705364155158687</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.416583</v>
+      </c>
+      <c r="H37">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J37">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.801984</v>
+      </c>
+      <c r="N37">
+        <v>7.603968</v>
+      </c>
+      <c r="O37">
+        <v>0.1214347399231898</v>
+      </c>
+      <c r="P37">
+        <v>0.08911086436636542</v>
+      </c>
+      <c r="Q37">
+        <v>1.583841900672</v>
+      </c>
+      <c r="R37">
+        <v>6.335367602688001</v>
+      </c>
+      <c r="S37">
+        <v>0.00486027406835065</v>
+      </c>
+      <c r="T37">
+        <v>0.002470282236978854</v>
       </c>
     </row>
   </sheetData>
